--- a/flows/DJCB_fund_flow_data.xlsx
+++ b/flows/DJCB_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1091"/>
+  <dimension ref="A1:B1107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11345,6 +11345,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1094" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1097" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1099" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1107" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
